--- a/Lab9-Thermistor/Deliverables/Procedure1.xlsx
+++ b/Lab9-Thermistor/Deliverables/Procedure1.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Keil\ValvanoWareTM4C123\EE-445L-Labs\Lab9-Thermistor\Deliverables\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
@@ -105,6 +100,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Valvano Postulate</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -114,26 +134,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -144,6 +144,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>ADC Value</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -487,11 +490,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="148140800"/>
-        <c:axId val="148141976"/>
+        <c:axId val="126640512"/>
+        <c:axId val="148061568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="148140800"/>
+        <c:axId val="126640512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -547,12 +550,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148141976"/>
+        <c:crossAx val="148061568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="148141976"/>
+        <c:axId val="148061568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -609,7 +612,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148140800"/>
+        <c:crossAx val="126640512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -673,6 +676,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Nyquist Theorem</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -682,26 +710,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1055,11 +1063,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="220187456"/>
-        <c:axId val="220186672"/>
+        <c:axId val="126669568"/>
+        <c:axId val="126671488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="220187456"/>
+        <c:axId val="126669568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1115,12 +1123,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220186672"/>
+        <c:crossAx val="126671488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="220186672"/>
+        <c:axId val="126671488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1177,7 +1185,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220187456"/>
+        <c:crossAx val="126669568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1241,6 +1249,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Aliased</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1250,26 +1283,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1623,11 +1636,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="189950288"/>
-        <c:axId val="189958912"/>
+        <c:axId val="126926208"/>
+        <c:axId val="148203008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="189950288"/>
+        <c:axId val="126926208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1683,12 +1696,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189958912"/>
+        <c:crossAx val="148203008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="189958912"/>
+        <c:axId val="148203008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3500"/>
@@ -1747,7 +1760,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189950288"/>
+        <c:crossAx val="126926208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3468,16 +3481,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3500,16 +3513,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>290512</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>42862</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>595312</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>347662</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3530,16 +3543,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3818,7 +3831,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3828,8 +3841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="X26" sqref="X26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Lab9-Thermistor/Deliverables/Procedure1.xlsx
+++ b/Lab9-Thermistor/Deliverables/Procedure1.xlsx
@@ -105,6 +105,35 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Testing</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> the Valvano Postulate</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -144,6 +173,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>ADC Output</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -487,11 +519,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="148140800"/>
-        <c:axId val="148141976"/>
+        <c:axId val="176576208"/>
+        <c:axId val="176576600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="148140800"/>
+        <c:axId val="176576208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -511,6 +543,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sample Number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -547,12 +635,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148141976"/>
+        <c:crossAx val="176576600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="148141976"/>
+        <c:axId val="176576600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -572,6 +660,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>ADC Output</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -609,7 +753,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148140800"/>
+        <c:crossAx val="176576208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -673,6 +817,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Testing the Nyquist Theorem</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1055,11 +1224,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="220187456"/>
-        <c:axId val="220186672"/>
+        <c:axId val="176572680"/>
+        <c:axId val="176572288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="220187456"/>
+        <c:axId val="176572680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1079,6 +1248,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sample</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Number</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1115,12 +1345,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220186672"/>
+        <c:crossAx val="176572288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="220186672"/>
+        <c:axId val="176572288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1140,6 +1370,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>ADC Output</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1177,7 +1463,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220187456"/>
+        <c:crossAx val="176572680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1241,6 +1527,35 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Testing the Aliasing</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Effect</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1623,11 +1938,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="189950288"/>
-        <c:axId val="189958912"/>
+        <c:axId val="176568760"/>
+        <c:axId val="176566800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="189950288"/>
+        <c:axId val="176568760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1647,6 +1962,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sample</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Number</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1683,12 +2059,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189958912"/>
+        <c:crossAx val="176566800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="189958912"/>
+        <c:axId val="176566800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3500"/>
@@ -1710,6 +2086,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>ADC Output</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1747,7 +2179,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189950288"/>
+        <c:crossAx val="176568760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3469,15 +3901,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3501,15 +3933,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>290512</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:colOff>300037</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>595312</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:colOff>604837</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3531,15 +3963,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3828,8 +4260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
